--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Documents\Estudo-PSR-Proagro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trabalho\Estudos\Estudo-PSR-Proagro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9DC6A6-CA01-47B3-BF8C-320D09B9EAFE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1072,7 +1071,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1133,10 +1132,38 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{685C00C7-E3AC-4F97-9CD3-95E6DEA6A61C}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1444,20 +1471,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1483,7 +1510,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "BAIRRO LIMOEIRO" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "LONDRINA",</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1501,7 +1528,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "FOZ DO IGUACU" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "FOZ DO IGUAÇU",</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1519,7 +1546,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "CANDEIA" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "MARIPÁ",</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1537,7 +1564,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "CAMBE" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "CAMBÉ",</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1555,7 +1582,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "ITABERA" &amp;&amp; SG_UF_PROPRIEDADE == "SP" ~ "ITABERÁ",</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +1600,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "INDÁPOLIS" &amp;&amp; SG_UF_PROPRIEDADE == "MS" ~ "DOURADOS",</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1618,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "CAPAO BONITO" &amp;&amp; SG_UF_PROPRIEDADE == "SP" ~ "CAPÃO BONITO",</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1609,7 +1636,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "MAUA DA SERRA" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "MAUÁ DA SERRA",</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1627,7 +1654,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "SENGES" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "SENGÉS",</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1645,7 +1672,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "JAGUARIAIVA" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "JAGUARIAÍVA",</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1663,7 +1690,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "ITARARE" &amp;&amp; SG_UF_PROPRIEDADE == "SP" ~ "ITARARÉ",</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1681,7 +1708,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "NOSSA SENHORA DA CANDELÁRIA" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "BANDEIRANTES",</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1699,7 +1726,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "SEDE ALVORADA" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "CASCAVEL",</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1717,7 +1744,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "SÃO JOÃO D'OESTE" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "CASCAVEL",</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1735,7 +1762,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "QUEDAS DO IGUACU" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "QUEDAS DO IGUAÇU",</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1753,7 +1780,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "OURO PRETO" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "TOLEDO",</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1771,7 +1798,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "TAQUARUNA" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "LONDRINA",</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1789,7 +1816,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "SÃO CLEMENTE" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "SANTA HELENA",</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1807,7 +1834,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "SÃO LUIZ" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "LONDRINA",</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1825,7 +1852,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "PIRAPÓ" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "APUCARANA",</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1843,7 +1870,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "LERROVILLE" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "LONDRINA",</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1861,7 +1888,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "DEZ DE MAIO" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "TOLEDO",</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1879,7 +1906,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "CAETANO MENDES" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "TIBAGI",</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1897,7 +1924,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "SANTA RITA DO OESTE" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "SANTA RITA D'OESTE",</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1915,7 +1942,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "MALU" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "TERRA BOA",</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1933,7 +1960,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "SÃO PEDRO" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "APUCARANA",</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1951,7 +1978,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "SELVA" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "OLÍMPIO LOPES",</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1969,7 +1996,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "BOA VISTA" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "CAMPO LARGO",</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1987,7 +2014,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "ARAUCARIA" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "ARAUCÁRIA",</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2005,7 +2032,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "CAPAO ALTO" &amp;&amp; SG_UF_PROPRIEDADE == "SC" ~ "CAPÃO ALTO",</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2023,7 +2050,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "BOM JESUS" &amp;&amp; SG_UF_PROPRIEDADE == "GO" ~ "BOM JESUS DE GOIÁS",</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2041,7 +2068,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "UBERLANDIA" &amp;&amp; SG_UF_PROPRIEDADE == "MG" ~ "UBERLÂNDIA",</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2059,7 +2086,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "INDIANOPOLIS" &amp;&amp; SG_UF_PROPRIEDADE == "MG" ~ "INDIANÓPOLIS",</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2077,7 +2104,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "BRAGANCA PAULISTA" &amp;&amp; SG_UF_PROPRIEDADE == "SP" ~ "BRAGANÇA PAULISTA",</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2095,7 +2122,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "MÁGDA" &amp;&amp; SG_UF_PROPRIEDADE == "SP" ~ "MAGDA",</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2113,7 +2140,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "BIRIGÜI" &amp;&amp; SG_UF_PROPRIEDADE == "SP" ~ "BIRIGUI",</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2131,7 +2158,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "ARACOIABA DA SERRA" &amp;&amp; SG_UF_PROPRIEDADE == "SP" ~ "ARAÇOIABA DA SERRA",</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2149,7 +2176,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "ITABOA" &amp;&amp; SG_UF_PROPRIEDADE == "SP" ~ "RIBEIRÃO BRANCO",</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2167,7 +2194,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "MOGI GUACU" &amp;&amp; SG_UF_PROPRIEDADE == "SP" ~ "MOGI GUAÇU",</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2185,7 +2212,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "APIAÍ-MIRIM" &amp;&amp; SG_UF_PROPRIEDADE == "SP" ~ "CAPÃO BONITO",</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2203,7 +2230,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "VILA OLIVA" &amp;&amp; SG_UF_PROPRIEDADE == "RS" ~ "CAXIAS DO SUL",</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2221,7 +2248,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "SANTA LÚCIA DO PIAÍ" &amp;&amp; SG_UF_PROPRIEDADE == "RS" ~ "CAXIAS DO SUL",</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2239,7 +2266,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "SILVEIRA" &amp;&amp; SG_UF_PROPRIEDADE == "RS" ~ "SÃO JOSÉ DOS AUSENTES",</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2257,7 +2284,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "FAZENDA SOUZA" &amp;&amp; SG_UF_PROPRIEDADE == "RS" ~ "CAXIAS DO SUL",</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2275,7 +2302,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "PAIQUERÊ" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "LONDRINA",</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2293,7 +2320,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "NOSSA SENHORA DA APARECIDA" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "ROLÂNDIA",</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2311,7 +2338,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "COLÔNIA SÃO JOÃO" &amp;&amp; SG_UF_PROPRIEDADE == "RS" ~ "CRUZ ALTA",</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2329,7 +2356,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "VILA IPIRANGA" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "TOLEDO",</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2347,7 +2374,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "COMANDAI" &amp;&amp; SG_UF_PROPRIEDADE == "RS" ~ "COMANDAÍ",</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2365,7 +2392,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "BELA VISTA" &amp;&amp; SG_UF_PROPRIEDADE == "RS" ~ "PASSO FUNDO",</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2383,7 +2410,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "FLUVIÓPOLIS" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "SÃO MATEUS DO SUL",</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2401,7 +2428,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "VARZEA DA PALMA" &amp;&amp; SG_UF_PROPRIEDADE == "MG" ~ "VÁRZEA DA PALMA",</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2419,7 +2446,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "NOVA VICOSA" &amp;&amp; SG_UF_PROPRIEDADE == "BA" ~ "NOVA VIÇOSA",</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2437,7 +2464,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "CACADOR" &amp;&amp; SG_UF_PROPRIEDADE == "SC" ~ "CAÇADOR",</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2452,7 +2479,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "HOLAMBRA II" &amp;&amp; SG_UF_PROPRIEDADE == "SP" ~ "",</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2467,7 +2494,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "FELPUDO" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "",</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2482,7 +2509,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "CAMPINA DE FORA" &amp;&amp; SG_UF_PROPRIEDADE == "SP" ~ "",</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2497,7 +2524,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "SANTANA DO LIVRAMENTO" &amp;&amp; SG_UF_PROPRIEDADE == "RS" ~ "",</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2512,7 +2539,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "ITAHUM" &amp;&amp; SG_UF_PROPRIEDADE == "MS" ~ "",</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2527,7 +2554,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "LUIS EDUARDO MAGALHAES" &amp;&amp; SG_UF_PROPRIEDADE == "BA" ~ "",</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2542,7 +2569,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "CHAPADAO DO SUL" &amp;&amp; SG_UF_PROPRIEDADE == "MS" ~ "",</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2557,7 +2584,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "GOIANAPOLIS" &amp;&amp; SG_UF_PROPRIEDADE == "GO" ~ "",</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2572,7 +2599,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "CAMAQUA" &amp;&amp; SG_UF_PROPRIEDADE == "RS" ~ "",</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2587,7 +2614,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "UNIAO DA VITORIA" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "",</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2602,7 +2629,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "NOVO HORIZONTE" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "",</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2617,7 +2644,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "MARGARIDA" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "",</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2632,7 +2659,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "IGUIPORÃ" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "",</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2647,7 +2674,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "JUTÍ" &amp;&amp; SG_UF_PROPRIEDADE == "MS" ~ "",</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2662,7 +2689,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "GUARAVERA" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "",</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2677,7 +2704,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "AMANDINA" &amp;&amp; SG_UF_PROPRIEDADE == "MS" ~ "",</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2692,7 +2719,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "PÉROLA INDEPENDENTE" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "",</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2707,7 +2734,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "VILA NOVA" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "",</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2722,7 +2749,7 @@
         <v>NM_MUNICIPIO_PROPRIEDADE == "ENTRE RIOS" &amp;&amp; SG_UF_PROPRIEDADE == "PR" ~ "",</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2733,7 +2760,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2744,7 +2771,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2755,7 +2782,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2766,7 +2793,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2777,7 +2804,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2788,7 +2815,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2799,7 +2826,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2810,7 +2837,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2821,7 +2848,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2832,7 +2859,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2843,7 +2870,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2854,7 +2881,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2865,7 +2892,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2876,7 +2903,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2887,7 +2914,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2898,7 +2925,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2909,7 +2936,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2920,7 +2947,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2931,7 +2958,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2942,7 +2969,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2953,7 +2980,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2964,7 +2991,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2975,7 +3002,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2986,7 +3013,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2997,7 +3024,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -3008,7 +3035,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -3019,7 +3046,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -3030,7 +3057,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -3041,7 +3068,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -3052,7 +3079,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -3063,7 +3090,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -3074,7 +3101,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -3085,7 +3112,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -3096,7 +3123,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -3107,7 +3134,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -3118,7 +3145,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -3129,7 +3156,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -3140,7 +3167,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -3151,7 +3178,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -3162,7 +3189,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -3173,7 +3200,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -3184,7 +3211,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -3195,7 +3222,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -3206,7 +3233,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -3217,7 +3244,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -3228,7 +3255,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3239,7 +3266,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -3250,7 +3277,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -3261,7 +3288,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -3272,7 +3299,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -3283,7 +3310,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -3294,7 +3321,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -3305,7 +3332,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -3316,7 +3343,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -3327,7 +3354,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -3338,7 +3365,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -3349,7 +3376,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -3360,7 +3387,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -3371,7 +3398,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -3382,7 +3409,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -3393,7 +3420,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -3404,7 +3431,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -3415,7 +3442,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -3426,7 +3453,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -3437,7 +3464,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -3448,7 +3475,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -3459,7 +3486,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -3470,7 +3497,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -3481,7 +3508,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -3492,7 +3519,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3503,7 +3530,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -3514,7 +3541,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -3525,7 +3552,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
